--- a/financeiro/resumo_campanha_64.xlsx
+++ b/financeiro/resumo_campanha_64.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>CAMPANHA 64</t>
   </si>
@@ -29,10 +29,16 @@
     <t>PAGAMENTO:</t>
   </si>
   <si>
-    <t>25/10/2024</t>
+    <t>06/11/2024</t>
   </si>
   <si>
     <t>VENDA EM BOLETOS - MATRIZ</t>
+  </si>
+  <si>
+    <t>PAGAMENTO PÓS:</t>
+  </si>
+  <si>
+    <t>30/11/-0001</t>
   </si>
   <si>
     <t>VENDEDOR</t>
@@ -593,51 +599,57 @@
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" s="6">
-        <v>2899.8</v>
+        <v>8480.71</v>
       </c>
       <c r="D8" s="6">
-        <v>2039.8</v>
+        <v>4006.71</v>
       </c>
       <c r="E8" s="6">
-        <v>860.0</v>
+        <v>4474.0</v>
       </c>
       <c r="F8" s="7">
-        <v>0.29657217739154</v>
+        <v>0.52755016973815</v>
       </c>
       <c r="G8" s="6">
-        <v>8.6</v>
+        <v>44.74</v>
       </c>
       <c r="H8" s="8">
         <v>0</v>
@@ -648,22 +660,22 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" s="6">
-        <v>4700.0</v>
+        <v>6560.0</v>
       </c>
       <c r="D9" s="6">
         <v>4700.0</v>
       </c>
       <c r="E9" s="6">
-        <v>0.0</v>
+        <v>1860.0</v>
       </c>
       <c r="F9" s="7">
-        <v>0.0</v>
+        <v>0.28353658536585</v>
       </c>
       <c r="G9" s="6">
-        <v>0</v>
+        <v>18.6</v>
       </c>
       <c r="H9" s="8">
         <v>0</v>
@@ -674,22 +686,22 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="6">
         <v>3683.52</v>
       </c>
       <c r="D10" s="6">
-        <v>0.0</v>
+        <v>2333.52</v>
       </c>
       <c r="E10" s="6">
-        <v>3683.52</v>
+        <v>1350.0</v>
       </c>
       <c r="F10" s="7">
-        <v>1.0</v>
+        <v>0.3664972634871</v>
       </c>
       <c r="G10" s="6">
-        <v>36.8352</v>
+        <v>13.5</v>
       </c>
       <c r="H10" s="8">
         <v>0</v>
@@ -700,22 +712,22 @@
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" s="6">
-        <v>14585.0</v>
+        <v>16425.0</v>
       </c>
       <c r="D11" s="6">
-        <v>1580.0</v>
+        <v>7080.0</v>
       </c>
       <c r="E11" s="6">
-        <v>13005.0</v>
+        <v>9345.0</v>
       </c>
       <c r="F11" s="7">
-        <v>0.89166952348303</v>
+        <v>0.5689497716895</v>
       </c>
       <c r="G11" s="6">
-        <v>130.05</v>
+        <v>93.45</v>
       </c>
       <c r="H11" s="8">
         <v>0</v>
@@ -726,22 +738,22 @@
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="9">
-        <v>25868.32</v>
+        <v>35149.23</v>
       </c>
       <c r="D12" s="9">
-        <v>8319.8</v>
+        <v>18120.23</v>
       </c>
       <c r="E12" s="9">
-        <v>17548.52</v>
+        <v>17029.0</v>
       </c>
       <c r="F12" s="10">
-        <v>0.67837880465372</v>
+        <v>0.48447718484872</v>
       </c>
       <c r="G12" s="9">
-        <v>175.4852</v>
+        <v>170.29</v>
       </c>
       <c r="H12" s="9">
         <v>0</v>
@@ -752,38 +764,38 @@
     </row>
     <row r="14" spans="1:9">
       <c r="F14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9">
         <v>0</v>
@@ -809,53 +821,53 @@
     </row>
     <row r="17" spans="1:9">
       <c r="F17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" s="6">
-        <v>6700.0</v>
+        <v>10545.66</v>
       </c>
       <c r="D19" s="6">
-        <v>4600.0</v>
+        <v>5070.0</v>
       </c>
       <c r="E19" s="6">
-        <v>2100.0</v>
+        <v>5475.66</v>
       </c>
       <c r="F19" s="7">
-        <v>0.3134328358209</v>
+        <v>0.51923350458862</v>
       </c>
       <c r="G19" s="6">
-        <v>21.0</v>
+        <v>54.7566</v>
       </c>
       <c r="H19" s="8">
         <v>0</v>
@@ -866,22 +878,22 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" s="9">
-        <v>6700.0</v>
+        <v>10545.66</v>
       </c>
       <c r="D20" s="9">
-        <v>4600.0</v>
+        <v>5070.0</v>
       </c>
       <c r="E20" s="9">
-        <v>2100.0</v>
+        <v>5475.66</v>
       </c>
       <c r="F20" s="10">
-        <v>0.3134328358209</v>
+        <v>0.51923350458862</v>
       </c>
       <c r="G20" s="9">
-        <v>21.0</v>
+        <v>54.7566</v>
       </c>
       <c r="H20" s="9">
         <v>0</v>
@@ -892,53 +904,53 @@
     </row>
     <row r="21" spans="1:9">
       <c r="F21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="B23" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" s="6">
-        <v>25868.32</v>
+        <v>35149.23</v>
       </c>
       <c r="D23" s="6">
-        <v>8319.8</v>
+        <v>18120.23</v>
       </c>
       <c r="E23" s="6">
-        <v>17548.52</v>
+        <v>17029.0</v>
       </c>
       <c r="F23" s="7">
-        <v>0.67837880465372</v>
+        <v>0.48447718484872</v>
       </c>
       <c r="G23" s="6">
-        <v>175.4852</v>
+        <v>170.29</v>
       </c>
       <c r="H23" s="8">
         <v>0</v>
@@ -949,7 +961,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
@@ -975,22 +987,22 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C25" s="6">
-        <v>6700.0</v>
+        <v>10545.66</v>
       </c>
       <c r="D25" s="6">
-        <v>4600.0</v>
+        <v>5070.0</v>
       </c>
       <c r="E25" s="6">
-        <v>2100.0</v>
+        <v>5475.66</v>
       </c>
       <c r="F25" s="7">
-        <v>0.3134328358209</v>
+        <v>0.51923350458862</v>
       </c>
       <c r="G25" s="6">
-        <v>21.0</v>
+        <v>54.7566</v>
       </c>
       <c r="H25" s="8">
         <v>0</v>
@@ -1001,22 +1013,22 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C26" s="9">
-        <v>32568.32</v>
+        <v>45694.89</v>
       </c>
       <c r="D26" s="9">
-        <v>12919.8</v>
+        <v>23190.23</v>
       </c>
       <c r="E26" s="9">
-        <v>19648.52</v>
+        <v>22504.66</v>
       </c>
       <c r="F26" s="10">
-        <v>0.60330161334696</v>
+        <v>0.4924983953348</v>
       </c>
       <c r="G26" s="9">
-        <v>196.4852</v>
+        <v>225.0466</v>
       </c>
       <c r="H26" s="9">
         <v>0</v>
@@ -1027,92 +1039,92 @@
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D30" s="12">
-        <v>2899.8</v>
+        <v>8480.71</v>
       </c>
       <c r="E30" s="13">
-        <v>2039.8</v>
+        <v>4006.71</v>
       </c>
       <c r="F30" s="12">
-        <v>860.0</v>
+        <v>4474.0</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D31" s="12">
-        <v>4700.0</v>
+        <v>6560.0</v>
       </c>
       <c r="E31" s="13">
         <v>4700.0</v>
       </c>
       <c r="F31" s="12">
-        <v>0.0</v>
+        <v>1860.0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D32" s="12">
         <v>3683.52</v>
       </c>
       <c r="E32" s="13">
-        <v>0.0</v>
+        <v>2333.52</v>
       </c>
       <c r="F32" s="12">
-        <v>3683.52</v>
+        <v>1350.0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="B33" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D33" s="12">
-        <v>14585.0</v>
+        <v>16425.0</v>
       </c>
       <c r="E33" s="13">
-        <v>1580.0</v>
+        <v>7080.0</v>
       </c>
       <c r="F33" s="12">
-        <v>13005.0</v>
+        <v>9345.0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1131,50 +1143,50 @@
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D36" s="12">
-        <v>6700.0</v>
+        <v>10545.66</v>
       </c>
       <c r="E36" s="13">
-        <v>4600.0</v>
+        <v>5070.0</v>
       </c>
       <c r="F36" s="12">
-        <v>2100.0</v>
+        <v>5475.66</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="5"/>
       <c r="C37" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D37" s="9">
-        <v>32568.32</v>
+        <v>45694.89</v>
       </c>
       <c r="E37" s="9">
-        <v>12919.8</v>
+        <v>23190.23</v>
       </c>
       <c r="F37" s="9">
-        <v>19648.52</v>
+        <v>22504.66</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="D38" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E38" s="15">
-        <v>0.39669838665304</v>
+        <v>0.5075016046652</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="D39" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E39" s="15">
-        <v>0.60330161334696</v>
+        <v>0.4924983953348</v>
       </c>
     </row>
   </sheetData>

--- a/financeiro/resumo_campanha_64.xlsx
+++ b/financeiro/resumo_campanha_64.xlsx
@@ -637,19 +637,19 @@
         <v>16</v>
       </c>
       <c r="C8" s="6">
-        <v>8480.71</v>
+        <v>13103.41</v>
       </c>
       <c r="D8" s="6">
-        <v>4006.71</v>
+        <v>8859.71</v>
       </c>
       <c r="E8" s="6">
-        <v>4474.0</v>
+        <v>4243.7</v>
       </c>
       <c r="F8" s="7">
-        <v>0.52755016973815</v>
+        <v>0.32386226180819</v>
       </c>
       <c r="G8" s="6">
-        <v>44.74</v>
+        <v>42.437</v>
       </c>
       <c r="H8" s="8">
         <v>0</v>
@@ -663,19 +663,19 @@
         <v>17</v>
       </c>
       <c r="C9" s="6">
-        <v>6560.0</v>
+        <v>7230.0</v>
       </c>
       <c r="D9" s="6">
-        <v>4700.0</v>
+        <v>7230.0</v>
       </c>
       <c r="E9" s="6">
-        <v>1860.0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" s="7">
-        <v>0.28353658536585</v>
+        <v>0.0</v>
       </c>
       <c r="G9" s="6">
-        <v>18.6</v>
+        <v>0</v>
       </c>
       <c r="H9" s="8">
         <v>0</v>
@@ -689,19 +689,19 @@
         <v>18</v>
       </c>
       <c r="C10" s="6">
+        <v>5198.43</v>
+      </c>
+      <c r="D10" s="6">
         <v>3683.52</v>
       </c>
-      <c r="D10" s="6">
-        <v>2333.52</v>
-      </c>
       <c r="E10" s="6">
-        <v>1350.0</v>
+        <v>1514.91</v>
       </c>
       <c r="F10" s="7">
-        <v>0.3664972634871</v>
+        <v>0.29141683162032</v>
       </c>
       <c r="G10" s="6">
-        <v>13.5</v>
+        <v>15.1491</v>
       </c>
       <c r="H10" s="8">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>19</v>
       </c>
       <c r="C11" s="6">
-        <v>16425.0</v>
+        <v>21325.0</v>
       </c>
       <c r="D11" s="6">
-        <v>7080.0</v>
+        <v>12580.0</v>
       </c>
       <c r="E11" s="6">
-        <v>9345.0</v>
+        <v>8745.0</v>
       </c>
       <c r="F11" s="7">
-        <v>0.5689497716895</v>
+        <v>0.41008206330598</v>
       </c>
       <c r="G11" s="6">
-        <v>93.45</v>
+        <v>87.45</v>
       </c>
       <c r="H11" s="8">
         <v>0</v>
@@ -741,19 +741,19 @@
         <v>20</v>
       </c>
       <c r="C12" s="9">
-        <v>35149.23</v>
+        <v>46856.84</v>
       </c>
       <c r="D12" s="9">
-        <v>18120.23</v>
+        <v>32353.23</v>
       </c>
       <c r="E12" s="9">
-        <v>17029.0</v>
+        <v>14503.61</v>
       </c>
       <c r="F12" s="10">
-        <v>0.48447718484872</v>
+        <v>0.30953026281755</v>
       </c>
       <c r="G12" s="9">
-        <v>170.29</v>
+        <v>145.0361</v>
       </c>
       <c r="H12" s="9">
         <v>0</v>
@@ -855,19 +855,19 @@
         <v>23</v>
       </c>
       <c r="C19" s="6">
-        <v>10545.66</v>
+        <v>13116.66</v>
       </c>
       <c r="D19" s="6">
-        <v>5070.0</v>
+        <v>7170.0</v>
       </c>
       <c r="E19" s="6">
-        <v>5475.66</v>
+        <v>5946.66</v>
       </c>
       <c r="F19" s="7">
-        <v>0.51923350458862</v>
+        <v>0.45336693944952</v>
       </c>
       <c r="G19" s="6">
-        <v>54.7566</v>
+        <v>59.4666</v>
       </c>
       <c r="H19" s="8">
         <v>0</v>
@@ -881,19 +881,19 @@
         <v>20</v>
       </c>
       <c r="C20" s="9">
-        <v>10545.66</v>
+        <v>13116.66</v>
       </c>
       <c r="D20" s="9">
-        <v>5070.0</v>
+        <v>7170.0</v>
       </c>
       <c r="E20" s="9">
-        <v>5475.66</v>
+        <v>5946.66</v>
       </c>
       <c r="F20" s="10">
-        <v>0.51923350458862</v>
+        <v>0.45336693944952</v>
       </c>
       <c r="G20" s="9">
-        <v>54.7566</v>
+        <v>59.4666</v>
       </c>
       <c r="H20" s="9">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>26</v>
       </c>
       <c r="C23" s="6">
-        <v>35149.23</v>
+        <v>46856.84</v>
       </c>
       <c r="D23" s="6">
-        <v>18120.23</v>
+        <v>32353.23</v>
       </c>
       <c r="E23" s="6">
-        <v>17029.0</v>
+        <v>14503.61</v>
       </c>
       <c r="F23" s="7">
-        <v>0.48447718484872</v>
+        <v>0.30953026281755</v>
       </c>
       <c r="G23" s="6">
-        <v>170.29</v>
+        <v>145.0361</v>
       </c>
       <c r="H23" s="8">
         <v>0</v>
@@ -990,19 +990,19 @@
         <v>28</v>
       </c>
       <c r="C25" s="6">
-        <v>10545.66</v>
+        <v>13116.66</v>
       </c>
       <c r="D25" s="6">
-        <v>5070.0</v>
+        <v>7170.0</v>
       </c>
       <c r="E25" s="6">
-        <v>5475.66</v>
+        <v>5946.66</v>
       </c>
       <c r="F25" s="7">
-        <v>0.51923350458862</v>
+        <v>0.45336693944952</v>
       </c>
       <c r="G25" s="6">
-        <v>54.7566</v>
+        <v>59.4666</v>
       </c>
       <c r="H25" s="8">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>20</v>
       </c>
       <c r="C26" s="9">
-        <v>45694.89</v>
+        <v>59973.5</v>
       </c>
       <c r="D26" s="9">
-        <v>23190.23</v>
+        <v>39523.23</v>
       </c>
       <c r="E26" s="9">
-        <v>22504.66</v>
+        <v>20450.27</v>
       </c>
       <c r="F26" s="10">
-        <v>0.4924983953348</v>
+        <v>0.34098843655948</v>
       </c>
       <c r="G26" s="9">
-        <v>225.0466</v>
+        <v>204.5027</v>
       </c>
       <c r="H26" s="9">
         <v>0</v>
@@ -1067,13 +1067,13 @@
         <v>16</v>
       </c>
       <c r="D30" s="12">
-        <v>8480.71</v>
+        <v>13103.41</v>
       </c>
       <c r="E30" s="13">
-        <v>4006.71</v>
+        <v>8859.71</v>
       </c>
       <c r="F30" s="12">
-        <v>4474.0</v>
+        <v>4243.7</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1084,13 +1084,13 @@
         <v>17</v>
       </c>
       <c r="D31" s="12">
-        <v>6560.0</v>
+        <v>7230.0</v>
       </c>
       <c r="E31" s="13">
-        <v>4700.0</v>
+        <v>7230.0</v>
       </c>
       <c r="F31" s="12">
-        <v>1860.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1101,13 +1101,13 @@
         <v>18</v>
       </c>
       <c r="D32" s="12">
+        <v>5198.43</v>
+      </c>
+      <c r="E32" s="13">
         <v>3683.52</v>
       </c>
-      <c r="E32" s="13">
-        <v>2333.52</v>
-      </c>
       <c r="F32" s="12">
-        <v>1350.0</v>
+        <v>1514.91</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1118,13 +1118,13 @@
         <v>19</v>
       </c>
       <c r="D33" s="12">
-        <v>16425.0</v>
+        <v>21325.0</v>
       </c>
       <c r="E33" s="13">
-        <v>7080.0</v>
+        <v>12580.0</v>
       </c>
       <c r="F33" s="12">
-        <v>9345.0</v>
+        <v>8745.0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1149,13 +1149,13 @@
         <v>23</v>
       </c>
       <c r="D36" s="12">
-        <v>10545.66</v>
+        <v>13116.66</v>
       </c>
       <c r="E36" s="13">
-        <v>5070.0</v>
+        <v>7170.0</v>
       </c>
       <c r="F36" s="12">
-        <v>5475.66</v>
+        <v>5946.66</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1164,13 +1164,13 @@
         <v>20</v>
       </c>
       <c r="D37" s="9">
-        <v>45694.89</v>
+        <v>59973.5</v>
       </c>
       <c r="E37" s="9">
-        <v>23190.23</v>
+        <v>39523.23</v>
       </c>
       <c r="F37" s="9">
-        <v>22504.66</v>
+        <v>20450.27</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1178,7 +1178,7 @@
         <v>33</v>
       </c>
       <c r="E38" s="15">
-        <v>0.5075016046652</v>
+        <v>0.65901156344052</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1186,7 +1186,7 @@
         <v>34</v>
       </c>
       <c r="E39" s="15">
-        <v>0.4924983953348</v>
+        <v>0.34098843655948</v>
       </c>
     </row>
   </sheetData>

--- a/financeiro/resumo_campanha_64.xlsx
+++ b/financeiro/resumo_campanha_64.xlsx
@@ -640,16 +640,16 @@
         <v>13103.41</v>
       </c>
       <c r="D8" s="6">
-        <v>8859.71</v>
+        <v>12363.71</v>
       </c>
       <c r="E8" s="6">
-        <v>4243.7</v>
+        <v>739.7</v>
       </c>
       <c r="F8" s="7">
-        <v>0.32386226180819</v>
+        <v>0.056450954369893</v>
       </c>
       <c r="G8" s="6">
-        <v>42.437</v>
+        <v>7.397</v>
       </c>
       <c r="H8" s="8">
         <v>0</v>
@@ -692,16 +692,16 @@
         <v>5198.43</v>
       </c>
       <c r="D10" s="6">
-        <v>3683.52</v>
+        <v>4073.52</v>
       </c>
       <c r="E10" s="6">
-        <v>1514.91</v>
+        <v>1124.91</v>
       </c>
       <c r="F10" s="7">
-        <v>0.29141683162032</v>
+        <v>0.21639418055067</v>
       </c>
       <c r="G10" s="6">
-        <v>15.1491</v>
+        <v>11.2491</v>
       </c>
       <c r="H10" s="8">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>21325.0</v>
       </c>
       <c r="D11" s="6">
-        <v>12580.0</v>
+        <v>19900.0</v>
       </c>
       <c r="E11" s="6">
-        <v>8745.0</v>
+        <v>1425.0</v>
       </c>
       <c r="F11" s="7">
-        <v>0.41008206330598</v>
+        <v>0.066822977725674</v>
       </c>
       <c r="G11" s="6">
-        <v>87.45</v>
+        <v>14.25</v>
       </c>
       <c r="H11" s="8">
         <v>0</v>
@@ -744,16 +744,16 @@
         <v>46856.84</v>
       </c>
       <c r="D12" s="9">
-        <v>32353.23</v>
+        <v>43567.23</v>
       </c>
       <c r="E12" s="9">
-        <v>14503.61</v>
+        <v>3289.61</v>
       </c>
       <c r="F12" s="10">
-        <v>0.30953026281755</v>
+        <v>0.070205545230963</v>
       </c>
       <c r="G12" s="9">
-        <v>145.0361</v>
+        <v>32.8961</v>
       </c>
       <c r="H12" s="9">
         <v>0</v>
@@ -858,16 +858,16 @@
         <v>13116.66</v>
       </c>
       <c r="D19" s="6">
-        <v>7170.0</v>
+        <v>9605.66</v>
       </c>
       <c r="E19" s="6">
-        <v>5946.66</v>
+        <v>3511.0</v>
       </c>
       <c r="F19" s="7">
-        <v>0.45336693944952</v>
+        <v>0.2676748501524</v>
       </c>
       <c r="G19" s="6">
-        <v>59.4666</v>
+        <v>35.11</v>
       </c>
       <c r="H19" s="8">
         <v>0</v>
@@ -884,16 +884,16 @@
         <v>13116.66</v>
       </c>
       <c r="D20" s="9">
-        <v>7170.0</v>
+        <v>9605.66</v>
       </c>
       <c r="E20" s="9">
-        <v>5946.66</v>
+        <v>3511.0</v>
       </c>
       <c r="F20" s="10">
-        <v>0.45336693944952</v>
+        <v>0.2676748501524</v>
       </c>
       <c r="G20" s="9">
-        <v>59.4666</v>
+        <v>35.11</v>
       </c>
       <c r="H20" s="9">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>46856.84</v>
       </c>
       <c r="D23" s="6">
-        <v>32353.23</v>
+        <v>43567.23</v>
       </c>
       <c r="E23" s="6">
-        <v>14503.61</v>
+        <v>3289.61</v>
       </c>
       <c r="F23" s="7">
-        <v>0.30953026281755</v>
+        <v>0.070205545230963</v>
       </c>
       <c r="G23" s="6">
-        <v>145.0361</v>
+        <v>32.8961</v>
       </c>
       <c r="H23" s="8">
         <v>0</v>
@@ -993,16 +993,16 @@
         <v>13116.66</v>
       </c>
       <c r="D25" s="6">
-        <v>7170.0</v>
+        <v>9605.66</v>
       </c>
       <c r="E25" s="6">
-        <v>5946.66</v>
+        <v>3511.0</v>
       </c>
       <c r="F25" s="7">
-        <v>0.45336693944952</v>
+        <v>0.2676748501524</v>
       </c>
       <c r="G25" s="6">
-        <v>59.4666</v>
+        <v>35.11</v>
       </c>
       <c r="H25" s="8">
         <v>0</v>
@@ -1019,16 +1019,16 @@
         <v>59973.5</v>
       </c>
       <c r="D26" s="9">
-        <v>39523.23</v>
+        <v>53172.89</v>
       </c>
       <c r="E26" s="9">
-        <v>20450.27</v>
+        <v>6800.61</v>
       </c>
       <c r="F26" s="10">
-        <v>0.34098843655948</v>
+        <v>0.11339358216546</v>
       </c>
       <c r="G26" s="9">
-        <v>204.5027</v>
+        <v>68.0061</v>
       </c>
       <c r="H26" s="9">
         <v>0</v>
@@ -1070,10 +1070,10 @@
         <v>13103.41</v>
       </c>
       <c r="E30" s="13">
-        <v>8859.71</v>
+        <v>12363.71</v>
       </c>
       <c r="F30" s="12">
-        <v>4243.7</v>
+        <v>739.7</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1104,10 +1104,10 @@
         <v>5198.43</v>
       </c>
       <c r="E32" s="13">
-        <v>3683.52</v>
+        <v>4073.52</v>
       </c>
       <c r="F32" s="12">
-        <v>1514.91</v>
+        <v>1124.91</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1121,10 +1121,10 @@
         <v>21325.0</v>
       </c>
       <c r="E33" s="13">
-        <v>12580.0</v>
+        <v>19900.0</v>
       </c>
       <c r="F33" s="12">
-        <v>8745.0</v>
+        <v>1425.0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1152,10 +1152,10 @@
         <v>13116.66</v>
       </c>
       <c r="E36" s="13">
-        <v>7170.0</v>
+        <v>9605.66</v>
       </c>
       <c r="F36" s="12">
-        <v>5946.66</v>
+        <v>3511.0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1167,10 +1167,10 @@
         <v>59973.5</v>
       </c>
       <c r="E37" s="9">
-        <v>39523.23</v>
+        <v>53172.89</v>
       </c>
       <c r="F37" s="9">
-        <v>20450.27</v>
+        <v>6800.61</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1178,7 +1178,7 @@
         <v>33</v>
       </c>
       <c r="E38" s="15">
-        <v>0.65901156344052</v>
+        <v>0.88660641783454</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1186,7 +1186,7 @@
         <v>34</v>
       </c>
       <c r="E39" s="15">
-        <v>0.34098843655948</v>
+        <v>0.11339358216546</v>
       </c>
     </row>
   </sheetData>

--- a/financeiro/resumo_campanha_64.xlsx
+++ b/financeiro/resumo_campanha_64.xlsx
@@ -652,10 +652,10 @@
         <v>7.397</v>
       </c>
       <c r="H8" s="8">
-        <v>0</v>
+        <v>739.7</v>
       </c>
       <c r="I8" s="8">
-        <v>0.0</v>
+        <v>14.794</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -704,10 +704,10 @@
         <v>11.2491</v>
       </c>
       <c r="H10" s="8">
-        <v>0</v>
+        <v>1124.91</v>
       </c>
       <c r="I10" s="8">
-        <v>0.0</v>
+        <v>22.4982</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -730,10 +730,10 @@
         <v>14.25</v>
       </c>
       <c r="H11" s="8">
-        <v>0</v>
+        <v>525.0</v>
       </c>
       <c r="I11" s="8">
-        <v>0.0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -756,10 +756,10 @@
         <v>32.8961</v>
       </c>
       <c r="H12" s="9">
-        <v>0</v>
+        <v>2389.61</v>
       </c>
       <c r="I12" s="9">
-        <v>0.0</v>
+        <v>47.7922</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -870,10 +870,10 @@
         <v>35.11</v>
       </c>
       <c r="H19" s="8">
-        <v>0</v>
+        <v>1900.0</v>
       </c>
       <c r="I19" s="8">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -896,10 +896,10 @@
         <v>35.11</v>
       </c>
       <c r="H20" s="9">
-        <v>0</v>
+        <v>1900.0</v>
       </c>
       <c r="I20" s="9">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -953,10 +953,10 @@
         <v>32.8961</v>
       </c>
       <c r="H23" s="8">
-        <v>0</v>
+        <v>2389.61</v>
       </c>
       <c r="I23" s="8">
-        <v>0.0</v>
+        <v>47.7922</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1005,10 +1005,10 @@
         <v>35.11</v>
       </c>
       <c r="H25" s="8">
-        <v>0</v>
+        <v>1900.0</v>
       </c>
       <c r="I25" s="8">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1031,10 +1031,10 @@
         <v>68.0061</v>
       </c>
       <c r="H26" s="9">
-        <v>0</v>
+        <v>4289.61</v>
       </c>
       <c r="I26" s="9">
-        <v>0.0</v>
+        <v>85.7922</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1070,10 +1070,10 @@
         <v>13103.41</v>
       </c>
       <c r="E30" s="13">
-        <v>12363.71</v>
+        <v>13103.41</v>
       </c>
       <c r="F30" s="12">
-        <v>739.7</v>
+        <v>6.821210263297E-13</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1104,10 +1104,10 @@
         <v>5198.43</v>
       </c>
       <c r="E32" s="13">
-        <v>4073.52</v>
+        <v>5198.43</v>
       </c>
       <c r="F32" s="12">
-        <v>1124.91</v>
+        <v>2.2737367544323E-13</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1121,10 +1121,10 @@
         <v>21325.0</v>
       </c>
       <c r="E33" s="13">
-        <v>19900.0</v>
+        <v>20425.0</v>
       </c>
       <c r="F33" s="12">
-        <v>1425.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1152,10 +1152,10 @@
         <v>13116.66</v>
       </c>
       <c r="E36" s="13">
-        <v>9605.66</v>
+        <v>11505.66</v>
       </c>
       <c r="F36" s="12">
-        <v>3511.0</v>
+        <v>1611.0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1164,13 +1164,16 @@
         <v>20</v>
       </c>
       <c r="D37" s="9">
+        <f>sum(D30:D36)</f>
         <v>59973.5</v>
       </c>
       <c r="E37" s="9">
-        <v>53172.89</v>
+        <f>sum(E30:E36)</f>
+        <v>57462.5</v>
       </c>
       <c r="F37" s="9">
-        <v>6800.61</v>
+        <f>sum(F30:F36)</f>
+        <v>2511</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1178,7 +1181,8 @@
         <v>33</v>
       </c>
       <c r="E38" s="15">
-        <v>0.88660641783454</v>
+        <f>(E37/D37)</f>
+        <v>0.95813150808274</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1186,7 +1190,8 @@
         <v>34</v>
       </c>
       <c r="E39" s="15">
-        <v>0.11339358216546</v>
+        <f>(F37/D37)</f>
+        <v>0.041868491917263</v>
       </c>
     </row>
   </sheetData>
